--- a/ItemsExtraer.xlsx
+++ b/ItemsExtraer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\Aplicacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\GitHub\Codigo-IMPEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7754A-613C-46D4-8A45-47636E715AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCEE72B-59E9-46F4-8C7D-F2DD345DBC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -90,21 +90,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -117,7 +108,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Énfasis2" xfId="1" builtinId="36"/>
@@ -399,13 +390,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -414,105 +408,505 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>2001712</v>
+        <v>2208775094</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>2205034</v>
+        <v>2208289076</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>2007744</v>
+        <v>2208280028</v>
       </c>
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>2114785</v>
+        <v>2208276096</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>2111936</v>
+        <v>2208273028</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>2112023</v>
+        <v>2208272070</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>2013834</v>
+        <v>2207959028</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>2103073</v>
+        <v>2207936028</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>2200847</v>
+        <v>2207782070</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>2115210</v>
+        <v>2207782028</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>2201641</v>
+        <v>2207642070</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>2108248</v>
+        <v>2207636094</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>2205635</v>
+        <v>2207636086</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>2206193</v>
+        <v>2207627028</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>2111533</v>
+        <v>2207623070</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>2007708</v>
+        <v>2207623028</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>2205255</v>
+        <v>2207608070</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>2005668</v>
+        <v>2207608061</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>2202712</v>
+        <v>2207608058</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>2202615</v>
+        <v>2207608049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>2207587106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>2207583070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>2207559051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>2207554012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>2207388110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>2207388068</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>2207388032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>2207356049</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>2207353095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>2207353049</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>2207333070</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>2207333061</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>2207288063</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>2207279070</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>2207279058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>2207252020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>2207240028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2207237106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>2207237093</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>2207237003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>2207236065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>2207236058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
+        <v>2207236012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4">
+        <v>2207231028</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="4">
+        <v>2207224072</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="4">
+        <v>2207223067</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>2207222012</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
+        <v>2207217005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>2207130110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>2207130098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>2207130068</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>2207128092</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>2207128070</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>2207128064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>2207112102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>2207112095</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>2207112083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
+        <v>2207108070</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>2207064031</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
+        <v>2207052070</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>2207052006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>2207036022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>2207034029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>2207027070</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>2207024077</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>2206993098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>2206956021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>2206952028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>2206952013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="4">
+        <v>2206952005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>2206941051</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>2206938051</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>2206937051</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>2206916076</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="4">
+        <v>2206915051</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>2206914051</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>2206913051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>2206912051</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>2206910051</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>2206908051</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>2206891070</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
+        <v>2206872070</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>2206872063</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>2206872012</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>2206868022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>2206867025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>2206866028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
+        <v>2206856025</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
+        <v>2206854028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
+        <v>2206852005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
+        <v>2206849051</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <v>2206847051</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="4">
+        <v>2206845021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="4">
+        <v>2206827031</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="4">
+        <v>2206821051</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
+        <v>2206818051</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4">
+        <v>2206816051</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
+        <v>2206814070</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="4">
+        <v>2206811070</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4">
+        <v>2206810102</v>
       </c>
     </row>
   </sheetData>

--- a/ItemsExtraer.xlsx
+++ b/ItemsExtraer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\GitHub\Codigo-IMPEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCEE72B-59E9-46F4-8C7D-F2DD345DBC4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01973D0A-6DEC-4A9D-991E-B313F09CFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -909,6 +909,16 @@
         <v>2206810102</v>
       </c>
     </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4">
+        <v>2003674022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>200366800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/ItemsExtraer.xlsx
+++ b/ItemsExtraer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\GitHub\Codigo-IMPEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01973D0A-6DEC-4A9D-991E-B313F09CFD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A8B86-DBCE-4B5D-BEB9-830AF1E87E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -390,533 +389,572 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>2208775094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201919070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>2208289076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201918070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>2208280028</v>
-      </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201917070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>2208276096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201917061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>2208273028</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201916070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>2208272070</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201914070</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>2207959028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201913070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>2207936028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201895083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>2207782070</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201895013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>2207782028</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201889047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <v>2207642070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201871093</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>2207636094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201852070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <v>2207636086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201847070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <v>2207627028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2201847051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <v>2207623070</v>
+        <v>2201839068</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <v>2207623028</v>
+        <v>2201829025</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <v>2207608070</v>
+        <v>2201813111</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <v>2207608061</v>
+        <v>2201813067</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <v>2207608058</v>
+        <v>2201747028</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <v>2207608049</v>
+        <v>2201716093</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <v>2207587106</v>
+        <v>2201712071</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <v>2207583070</v>
+        <v>2201704094</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <v>2207559051</v>
+        <v>2201704016</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <v>2207554012</v>
+        <v>2201704003</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>2207388110</v>
+        <v>2201703106</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>2207388068</v>
+        <v>2201703093</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>2207388032</v>
+        <v>2201703070</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <v>2207356049</v>
+        <v>2201700093</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <v>2207353095</v>
+        <v>2201641029</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <v>2207353049</v>
+        <v>2201616094</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <v>2207333070</v>
+        <v>2201616029</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <v>2207333061</v>
+        <v>2201612049</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <v>2207288063</v>
+        <v>2201612028</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <v>2207279070</v>
+        <v>2201575028</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <v>2207279058</v>
+        <v>2201575013</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <v>2207252020</v>
+        <v>2201565109</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <v>2207240028</v>
+        <v>2201565017</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
-        <v>2207237106</v>
+        <v>2201546096</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
-        <v>2207237093</v>
+        <v>2201546012</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
-        <v>2207237003</v>
+        <v>2201525093</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
-        <v>2207236065</v>
+        <v>2201523051</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
-        <v>2207236058</v>
+        <v>2201501093</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
-        <v>2207236012</v>
+        <v>2201501005</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
-        <v>2207231028</v>
+        <v>2201495070</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
-        <v>2207224072</v>
+        <v>2201495025</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
-        <v>2207223067</v>
+        <v>2201495021</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
-        <v>2207222012</v>
+        <v>2201489070</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
-        <v>2207217005</v>
+        <v>2201489022</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>2207130110</v>
+        <v>2201489021</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
-        <v>2207130098</v>
+        <v>2201484025</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>2207130068</v>
+        <v>2201484022</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
-        <v>2207128092</v>
+        <v>2201482028</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>2207128070</v>
+        <v>2201459012</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
-        <v>2207128064</v>
+        <v>2201451003</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
-        <v>2207112102</v>
+        <v>2201445083</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
-        <v>2207112095</v>
+        <v>2201440006</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
-        <v>2207112083</v>
+        <v>2201434028</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
-        <v>2207108070</v>
+        <v>2201434026</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
-        <v>2207064031</v>
+        <v>2201431083</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
-        <v>2207052070</v>
+        <v>2201431070</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
-        <v>2207052006</v>
+        <v>2201354095</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
-        <v>2207036022</v>
+        <v>2201354070</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
-        <v>2207034029</v>
+        <v>2201340102</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
-        <v>2207027070</v>
+        <v>2201340093</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
-        <v>2207024077</v>
+        <v>2201340065</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
-        <v>2206993098</v>
+        <v>2201340012</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
-        <v>2206956021</v>
+        <v>2201317005</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
-        <v>2206952028</v>
+        <v>2201315086</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
-        <v>2206952013</v>
+        <v>2201315058</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
-        <v>2206952005</v>
+        <v>2201315013</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
-        <v>2206941051</v>
+        <v>2201315002</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
-        <v>2206938051</v>
+        <v>2201299070</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
-        <v>2206937051</v>
+        <v>2201289070</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
-        <v>2206916076</v>
+        <v>2201289028</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
-        <v>2206915051</v>
+        <v>2201289005</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
-        <v>2206914051</v>
+        <v>2201264083</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
-        <v>2206913051</v>
+        <v>2201247038</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
-        <v>2206912051</v>
+        <v>2201224038</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
-        <v>2206910051</v>
+        <v>2201162070</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
-        <v>2206908051</v>
+        <v>2201106083</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
-        <v>2206891070</v>
+        <v>2201106070</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
-        <v>2206872070</v>
+        <v>2200999070</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
-        <v>2206872063</v>
+        <v>2200922106</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
-        <v>2206872012</v>
+        <v>2200922094</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
-        <v>2206868022</v>
+        <v>2200922093</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
-        <v>2206867025</v>
+        <v>2200922070</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
-        <v>2206866028</v>
+        <v>2200922030</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
-        <v>2206856025</v>
+        <v>2200922016</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
-        <v>2206854028</v>
+        <v>2200922011</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
-        <v>2206852005</v>
+        <v>2200920094</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
-        <v>2206849051</v>
+        <v>2200920093</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
-        <v>2206847051</v>
+        <v>2200920072</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
-        <v>2206845021</v>
+        <v>2200920049</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
-        <v>2206827031</v>
+        <v>2200864092</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
-        <v>2206821051</v>
+        <v>2200863028</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
-        <v>2206818051</v>
+        <v>2200848006</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
-        <v>2206816051</v>
+        <v>2200847006</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
-        <v>2206814070</v>
+        <v>2200829068</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
-        <v>2206811070</v>
+        <v>2200826077</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
-        <v>2206810102</v>
+        <v>2200789070</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
-        <v>2003674022</v>
+        <v>2200789049</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="3">
-        <v>200366800</v>
+      <c r="A103" s="4">
+        <v>2200789005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="4">
+        <v>2200789002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="4">
+        <v>2200761103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="4">
+        <v>2200761087</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="4">
+        <v>2200751093</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="4">
+        <v>2200750093</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="4">
+        <v>2200719076</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="4">
+        <v>2200714076</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="4">
+        <v>2200697092</v>
       </c>
     </row>
   </sheetData>

--- a/ItemsExtraer.xlsx
+++ b/ItemsExtraer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\GitHub\Codigo-IMPEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A8B86-DBCE-4B5D-BEB9-830AF1E87E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF5AE8-5380-4CC1-ACBF-5F89160D5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -407,555 +407,355 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
-        <v>2201919070</v>
+        <v>2114214095</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
-        <v>2201918070</v>
+        <v>2114204093</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
-        <v>2201917070</v>
+        <v>2114204070</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <v>2201917061</v>
+        <v>2114204051</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>2201916070</v>
+        <v>2114192006</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <v>2201914070</v>
+        <v>2114190006</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <v>2201913070</v>
+        <v>2114175051</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <v>2201895083</v>
+        <v>2114133093</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <v>2201895013</v>
+        <v>2114133012</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <v>2201889047</v>
+        <v>2114133003</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>2201871093</v>
-      </c>
+      <c r="A12" s="4"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>2201852070</v>
-      </c>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>2201847070</v>
-      </c>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>2201847051</v>
-      </c>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>2201839068</v>
-      </c>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>2201829025</v>
-      </c>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>2201813111</v>
-      </c>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>2201813067</v>
-      </c>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <v>2201747028</v>
-      </c>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4">
-        <v>2201716093</v>
-      </c>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>2201712071</v>
-      </c>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4">
-        <v>2201704094</v>
-      </c>
+      <c r="A23" s="4"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>2201704016</v>
-      </c>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4">
-        <v>2201704003</v>
-      </c>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>2201703106</v>
-      </c>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>2201703093</v>
-      </c>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>2201703070</v>
-      </c>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>2201700093</v>
-      </c>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>2201641029</v>
-      </c>
+      <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>2201616094</v>
-      </c>
+      <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>2201616029</v>
-      </c>
+      <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4">
-        <v>2201612049</v>
-      </c>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4">
-        <v>2201612028</v>
-      </c>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4">
-        <v>2201575028</v>
-      </c>
+      <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4">
-        <v>2201575013</v>
-      </c>
+      <c r="A36" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4">
-        <v>2201565109</v>
-      </c>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4">
-        <v>2201565017</v>
-      </c>
+      <c r="A38" s="4"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4">
-        <v>2201546096</v>
-      </c>
+      <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>2201546012</v>
-      </c>
+      <c r="A40" s="4"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4">
-        <v>2201525093</v>
-      </c>
+      <c r="A41" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>2201523051</v>
-      </c>
+      <c r="A42" s="4"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4">
-        <v>2201501093</v>
-      </c>
+      <c r="A43" s="4"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
-        <v>2201501005</v>
-      </c>
+      <c r="A44" s="4"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4">
-        <v>2201495070</v>
-      </c>
+      <c r="A45" s="4"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
-        <v>2201495025</v>
-      </c>
+      <c r="A46" s="4"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4">
-        <v>2201495021</v>
-      </c>
+      <c r="A47" s="4"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>2201489070</v>
-      </c>
+      <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4">
-        <v>2201489022</v>
-      </c>
+      <c r="A49" s="4"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4">
-        <v>2201489021</v>
-      </c>
+      <c r="A50" s="4"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4">
-        <v>2201484025</v>
-      </c>
+      <c r="A51" s="4"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4">
-        <v>2201484022</v>
-      </c>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4">
-        <v>2201482028</v>
-      </c>
+      <c r="A53" s="4"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4">
-        <v>2201459012</v>
-      </c>
+      <c r="A54" s="4"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
-        <v>2201451003</v>
-      </c>
+      <c r="A55" s="4"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4">
-        <v>2201445083</v>
-      </c>
+      <c r="A56" s="4"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4">
-        <v>2201440006</v>
-      </c>
+      <c r="A57" s="4"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4">
-        <v>2201434028</v>
-      </c>
+      <c r="A58" s="4"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4">
-        <v>2201434026</v>
-      </c>
+      <c r="A59" s="4"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4">
-        <v>2201431083</v>
-      </c>
+      <c r="A60" s="4"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4">
-        <v>2201431070</v>
-      </c>
+      <c r="A61" s="4"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4">
-        <v>2201354095</v>
-      </c>
+      <c r="A62" s="4"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4">
-        <v>2201354070</v>
-      </c>
+      <c r="A63" s="4"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4">
-        <v>2201340102</v>
-      </c>
+      <c r="A64" s="4"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4">
-        <v>2201340093</v>
-      </c>
+      <c r="A65" s="4"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4">
-        <v>2201340065</v>
-      </c>
+      <c r="A66" s="4"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4">
-        <v>2201340012</v>
-      </c>
+      <c r="A67" s="4"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
-        <v>2201317005</v>
-      </c>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4">
-        <v>2201315086</v>
-      </c>
+      <c r="A69" s="4"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4">
-        <v>2201315058</v>
-      </c>
+      <c r="A70" s="4"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4">
-        <v>2201315013</v>
-      </c>
+      <c r="A71" s="4"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4">
-        <v>2201315002</v>
-      </c>
+      <c r="A72" s="4"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4">
-        <v>2201299070</v>
-      </c>
+      <c r="A73" s="4"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4">
-        <v>2201289070</v>
-      </c>
+      <c r="A74" s="4"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4">
-        <v>2201289028</v>
-      </c>
+      <c r="A75" s="4"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4">
-        <v>2201289005</v>
-      </c>
+      <c r="A76" s="4"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4">
-        <v>2201264083</v>
-      </c>
+      <c r="A77" s="4"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4">
-        <v>2201247038</v>
-      </c>
+      <c r="A78" s="4"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4">
-        <v>2201224038</v>
-      </c>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4">
-        <v>2201162070</v>
-      </c>
+      <c r="A80" s="4"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
-        <v>2201106083</v>
-      </c>
+      <c r="A81" s="4"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4">
-        <v>2201106070</v>
-      </c>
+      <c r="A82" s="4"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4">
-        <v>2200999070</v>
-      </c>
+      <c r="A83" s="4"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4">
-        <v>2200922106</v>
-      </c>
+      <c r="A84" s="4"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4">
-        <v>2200922094</v>
-      </c>
+      <c r="A85" s="4"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4">
-        <v>2200922093</v>
-      </c>
+      <c r="A86" s="4"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4">
-        <v>2200922070</v>
-      </c>
+      <c r="A87" s="4"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4">
-        <v>2200922030</v>
-      </c>
+      <c r="A88" s="4"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4">
-        <v>2200922016</v>
-      </c>
+      <c r="A89" s="4"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4">
-        <v>2200922011</v>
-      </c>
+      <c r="A90" s="4"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4">
-        <v>2200920094</v>
-      </c>
+      <c r="A91" s="4"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="4">
-        <v>2200920093</v>
-      </c>
+      <c r="A92" s="4"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="4">
-        <v>2200920072</v>
-      </c>
+      <c r="A93" s="4"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="4">
-        <v>2200920049</v>
-      </c>
+      <c r="A94" s="4"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="4">
-        <v>2200864092</v>
-      </c>
+      <c r="A95" s="4"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4">
-        <v>2200863028</v>
-      </c>
+      <c r="A96" s="4"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4">
-        <v>2200848006</v>
-      </c>
+      <c r="A97" s="4"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4">
-        <v>2200847006</v>
-      </c>
+      <c r="A98" s="4"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4">
-        <v>2200829068</v>
-      </c>
+      <c r="A99" s="4"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="4">
-        <v>2200826077</v>
-      </c>
+      <c r="A100" s="4"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="4">
-        <v>2200789070</v>
-      </c>
+      <c r="A101" s="4"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4">
-        <v>2200789049</v>
-      </c>
+      <c r="A102" s="4"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4">
-        <v>2200789005</v>
-      </c>
+      <c r="A103" s="4"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="4">
-        <v>2200789002</v>
-      </c>
+      <c r="A104" s="4"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="4">
-        <v>2200761103</v>
-      </c>
+      <c r="A105" s="4"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="4">
-        <v>2200761087</v>
-      </c>
+      <c r="A106" s="4"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4">
-        <v>2200751093</v>
-      </c>
+      <c r="A107" s="4"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="4">
-        <v>2200750093</v>
-      </c>
+      <c r="A108" s="4"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="4">
-        <v>2200719076</v>
-      </c>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4">
-        <v>2200714076</v>
-      </c>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="4">
-        <v>2200697092</v>
-      </c>
+      <c r="A111" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ItemsExtraer.xlsx
+++ b/ItemsExtraer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcolin\Documents\GitHub\Codigo-IMPEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EF5AE8-5380-4CC1-ACBF-5F89160D5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D651FD4-921B-4847-8608-FB1B060879D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,14 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,13 +54,6 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -84,8 +70,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -98,19 +84,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="60% - Énfasis2" xfId="1" builtinId="36"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,373 +370,3898 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:A777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="4">
-        <v>2114214095</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
-        <v>2114204093</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2114204070</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>2114204051</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>2114192006</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>2114190006</v>
-      </c>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
-        <v>2114175051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>2114133093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>2114133012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>2114133003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2113507051</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2113120070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2115082051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2114293071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2114934003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2113533006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2114930012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2114987005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2113123030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2113356093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1807670094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2105671051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2007597028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2113447093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2106225047</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
+      <c r="A17">
+        <v>1706650005</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+      <c r="A18">
+        <v>2113587070</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
+      <c r="A19">
+        <v>2113356094</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+      <c r="A20">
+        <v>2113356047</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+      <c r="A21">
+        <v>2113356070</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
+      <c r="A22">
+        <v>2105447028</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+      <c r="A23">
+        <v>2114963070</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="A24">
+        <v>2114935070</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25">
+        <v>2201536102</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
+      <c r="A26">
+        <v>2010616070</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
+      <c r="A27">
+        <v>2113356083</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
+      <c r="A28">
+        <v>2112833051</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
+      <c r="A29">
+        <v>2113585028</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
+      <c r="A30">
+        <v>2113586038</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
+      <c r="A31">
+        <v>2113536028</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
+      <c r="A32">
+        <v>2114849005</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
+      <c r="A33">
+        <v>2114844058</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
+      <c r="A34">
+        <v>2113509093</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
+      <c r="A35">
+        <v>2112797070</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
+      <c r="A36">
+        <v>2109367049</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
+      <c r="A37">
+        <v>2114930102</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
+      <c r="A38">
+        <v>2200237068</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
+      <c r="A39">
+        <v>2113356013</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
+      <c r="A40">
+        <v>2115123051</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
+      <c r="A41">
+        <v>2114306030</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
+      <c r="A42">
+        <v>2113585064</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+      <c r="A43">
+        <v>2114842070</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="A44">
+        <v>2113578028</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="A45">
+        <v>2201988077</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
+      <c r="A46">
+        <v>2201651020</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
+      <c r="A47">
+        <v>2114282028</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
+      <c r="A48">
+        <v>2114879070</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
+      <c r="A49">
+        <v>2113356012</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
+      <c r="A50">
+        <v>2113529049</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
+      <c r="A51">
+        <v>2113356003</v>
+      </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
+      <c r="A52">
+        <v>2113014070</v>
+      </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
+      <c r="A53">
+        <v>2114921047</v>
+      </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
+      <c r="A54">
+        <v>2114210054</v>
+      </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
+      <c r="A55">
+        <v>2113590006</v>
+      </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
+      <c r="A56">
+        <v>2204774028</v>
+      </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A57">
+        <v>2114201070</v>
+      </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
+      <c r="A58">
+        <v>2203405098</v>
+      </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
+      <c r="A59">
+        <v>2114985070</v>
+      </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
+      <c r="A60">
+        <v>2113538030</v>
+      </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
+      <c r="A61">
+        <v>2113356028</v>
+      </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="A62">
+        <v>2114969070</v>
+      </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
+      <c r="A63">
+        <v>2113577028</v>
+      </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
+      <c r="A64">
+        <v>2200538076</v>
+      </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
+      <c r="A65">
+        <v>2115047049</v>
+      </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
+      <c r="A66">
+        <v>2110221034</v>
+      </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
+      <c r="A67">
+        <v>2115124106</v>
+      </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
+      <c r="A68">
+        <v>2202687047</v>
+      </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
+      <c r="A69">
+        <v>2113510093</v>
+      </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
+      <c r="A70">
+        <v>2115017051</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
+      <c r="A71">
+        <v>2114037006</v>
+      </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
+      <c r="A72">
+        <v>2114302093</v>
+      </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="4"/>
+      <c r="A73">
+        <v>2114935083</v>
+      </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
+      <c r="A74">
+        <v>2201277012</v>
+      </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4"/>
+      <c r="A75">
+        <v>2115001028</v>
+      </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
+      <c r="A76">
+        <v>2112748028</v>
+      </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
+      <c r="A77">
+        <v>2113576038</v>
+      </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
+      <c r="A78">
+        <v>2114029093</v>
+      </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4"/>
+      <c r="A79">
+        <v>2113589028</v>
+      </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="4"/>
+      <c r="A80">
+        <v>2114847028</v>
+      </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4"/>
+      <c r="A81">
+        <v>2113541006</v>
+      </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4"/>
+      <c r="A82">
+        <v>2006700047</v>
+      </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="A83">
+        <v>2114879102</v>
+      </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
+      <c r="A84">
+        <v>2114282072</v>
+      </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
+      <c r="A85">
+        <v>2114184038</v>
+      </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4"/>
+      <c r="A86">
+        <v>2203304012</v>
+      </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
+      <c r="A87">
+        <v>2204114111</v>
+      </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4"/>
+      <c r="A88">
+        <v>2112779028</v>
+      </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4"/>
+      <c r="A89">
+        <v>2200725076</v>
+      </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4"/>
+      <c r="A90">
+        <v>2114939034</v>
+      </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4"/>
+      <c r="A91">
+        <v>2115075008</v>
+      </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="4"/>
+      <c r="A92">
+        <v>2200574092</v>
+      </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="4"/>
+      <c r="A93">
+        <v>2113536070</v>
+      </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="4"/>
+      <c r="A94">
+        <v>2200604083</v>
+      </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="4"/>
+      <c r="A95">
+        <v>2114214100</v>
+      </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4"/>
+      <c r="A96">
+        <v>2112916051</v>
+      </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="4"/>
+      <c r="A97">
+        <v>2201775028</v>
+      </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="4"/>
+      <c r="A98">
+        <v>2112790070</v>
+      </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4"/>
+      <c r="A99">
+        <v>2114950070</v>
+      </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="4"/>
+      <c r="A100">
+        <v>2203382020</v>
+      </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="4"/>
+      <c r="A101">
+        <v>2114300095</v>
+      </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="4"/>
+      <c r="A102">
+        <v>2113543071</v>
+      </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="4"/>
+      <c r="A103">
+        <v>2115126049</v>
+      </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="4"/>
+      <c r="A104">
+        <v>2114021049</v>
+      </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="4"/>
+      <c r="A105">
+        <v>2112955083</v>
+      </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="4"/>
+      <c r="A106">
+        <v>2200730076</v>
+      </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4"/>
+      <c r="A107">
+        <v>2112914051</v>
+      </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="4"/>
+      <c r="A108">
+        <v>2115132083</v>
+      </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="4"/>
+      <c r="A109">
+        <v>2113588093</v>
+      </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="4"/>
+      <c r="A110">
+        <v>2113578064</v>
+      </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="4"/>
+      <c r="A111">
+        <v>2113586034</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2204069028</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2114972093</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2113528070</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2114850028</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2115116051</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2111691061</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2114848097</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2201319094</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2115098047</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2114212058</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2201413072</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2112753103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2114860070</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2113577070</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2115110070</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2111691093</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2115005051</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2114864051</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2200604070</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2114375028</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2114902070</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2114868003</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>2113582028</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2112769028</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2201536093</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2201326095</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2115030051</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2209683070</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2113597070</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2115081051</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2114969093</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2201240032</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2201410106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2114985058</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2110739094</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2114846070</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2008013071</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2206532109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2114296012</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2113530028</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2114844070</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2206532088</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2113006083</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2204244049</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2201304070</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2009289047</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2113006102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2113533049</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2113576034</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2113582070</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2115080093</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2114824058</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2008013051</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2114300070</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2203207049</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2204419033</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2113589070</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2201238094</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2115125093</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2204243095</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2113588038</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2113014083</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2115130051</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2114965106</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2114805093</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2204020028</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2106225101</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>2115000003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2114983014</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>2113534070</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>2114961070</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>2113584028</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>2114269093</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>2204125016</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>2115059070</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>2113042038</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>2114953028</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>2204170095</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>2114025049</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>2203207083</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>2114915072</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>2114856028</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>2114179028</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>2204119111</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>2114655070</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>2201283103</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>2113533070</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>2113006029</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>2203427025</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>2114984058</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>2203147032</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>2113006012</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>2105681100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>2211371020</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>2115023094</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>2115049012</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>2200177030</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>2112582070</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>2202856008</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>2113008038</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>2202688050</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>2113538070</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>2203374111</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>2114925070</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2115050012</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>2114302070</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2114847070</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2114179093</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2202490050</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>2209683028</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>2004653101</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>2115097049</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>2113826038</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>2114918093</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>2115001047</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>2115178070</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>2114026028</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>2110766049</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>2114828028</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>2204134032</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>2211332090</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>2202852058</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>2114958070</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>2114993070</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>2114299083</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>2201490021</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>2111844059</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>2210943008</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>2112988070</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>2113590070</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>2113542058</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>2114917070</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>2113009038</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>2113926093</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>2113855038</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>2115094012</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>2114655017</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>2111711062</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>2113533095</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>2114846005</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>2210943020</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>2203129028</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>2114897028</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>2200880076</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>2114980070</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>2201406102</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>2115005054</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>2115178028</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>2201467028</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>2115048093</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>2011210028</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>2113827077</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>2113696051</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>2201239101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>2114968028</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>2100132093</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>2203306012</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>2201519047</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>2210939076</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>2115124093</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>2114257102</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>2113584070</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>2114298028</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>2113826034</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>2113014102</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>2114613054</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>2113539058</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>2113665070</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>2114295070</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>2114209070</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>2004653091</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>2113540058</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>2211493095</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>2114375083</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>2112580006</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>2113532041</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>2115075076</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>2204808093</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>2201406065</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>2111786058</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>2114184034</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>2112962013</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>2113855034</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>2113976093</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>2113580012</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>2114031083</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>2113006070</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>1906383006</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>2204061093</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>2114978070</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>2113579028</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>2113725038</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>2204808069</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>2203280093</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>2211839049</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>2114801065</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>2201417028</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>2113908102</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>2113908065</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>2113591028</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>2112783028</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>2114981005</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>2112781062</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>2114182038</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>2204258093</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>2203504070</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>2112030012</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>2114952070</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>2202133012</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>2115126093</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>2114909093</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>2114850070</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>2114823093</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>2114978097</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>2203227070</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>2113580049</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>2115179051</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>2115015028</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>2115112051</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>2112782028</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>2114301070</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>2114981028</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>2111589093</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>2113532100</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>2204308083</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>2114939070</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>2211486049</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>2114855070</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>2106930014</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>2115119049</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>2105036070</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>2211738070</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>2113511028</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>2202853050</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>2106225094</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>2202699016</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>2211362047</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>2114962012</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>2114888070</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>2112781028</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>2115026049</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>2115093093</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>1906383058</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>2114801102</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>1906383094</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>2114825028</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>2112840012</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>2200604058</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>1906383017</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>2115128093</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>2114031006</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>2114201049</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>2114885070</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>2115048028</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>2115048003</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>1906383065</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>2114855005</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>2114917064</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>2204258101</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>2115060103</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>2114208070</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>2114845070</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>2204165093</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>2114087094</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>2114212070</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>2113591070</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>2112783063</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>2115048102</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>2113579012</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>2114968070</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>2115085049</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>2112769012</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>2112576012</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>2114953093</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>2115028047</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>2204375032</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>2114998051</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>2114378076</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>2113798049</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>2115031012</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>2201367086</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>2204139032</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>2113877049</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>2115048065</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>2114376102</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>2200904020</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>2211335007</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>2114966070</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>2113942070</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A401">
+        <v>2115048047</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A402">
+        <v>2113847034</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A403">
+        <v>2114827003</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A404">
+        <v>2114911051</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A405">
+        <v>2114806047</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A406">
+        <v>2114301012</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A407">
+        <v>2115021102</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A408">
+        <v>2114782038</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A409">
+        <v>2201570102</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A410">
+        <v>2112767103</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A411">
+        <v>2114249038</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A412">
+        <v>2113353051</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A413">
+        <v>2115127083</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A414">
+        <v>2014544102</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A415">
+        <v>2114964028</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A416">
+        <v>2114888012</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A417">
+        <v>2115118051</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A418">
+        <v>2114989030</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A419">
+        <v>2115114012</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A420">
+        <v>2114298003</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A421">
+        <v>2115175072</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A422">
+        <v>2115128012</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A423">
+        <v>2115044098</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A424">
+        <v>2114207028</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A425">
+        <v>2114845058</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A426">
+        <v>2113575049</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A427">
+        <v>2112767070</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A428">
+        <v>2113575093</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A429">
+        <v>2201557071</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A430">
+        <v>2114028070</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A431">
+        <v>2114182034</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A432">
+        <v>2113664065</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A433">
+        <v>2204252070</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A434">
+        <v>2115100102</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A435">
+        <v>2211288032</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A436">
+        <v>2211149098</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A437">
+        <v>2204174095</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A438">
+        <v>2114491094</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A439">
+        <v>2207350076</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A440">
+        <v>2112569095</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A441">
+        <v>2211844070</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A442">
+        <v>2105447095</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A443">
+        <v>2114269003</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A444">
+        <v>2114026070</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A445">
+        <v>2211490070</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A446">
+        <v>2114491106</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A447">
+        <v>2113825102</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A448">
+        <v>2200048088</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A449">
+        <v>2115070098</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A450">
+        <v>2113474070</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A451">
+        <v>2207350049</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A452">
+        <v>2112928051</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A453">
+        <v>2113664083</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A454">
+        <v>2114980102</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A455">
+        <v>2114979070</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A456">
+        <v>2201565014</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A457">
+        <v>2201565086</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A458">
+        <v>2007706030</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A459">
+        <v>2112782070</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A460">
+        <v>2112779083</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A461">
+        <v>2113664003</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A462">
+        <v>2113976102</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A463">
+        <v>2201565103</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A464">
+        <v>2114965070</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A465">
+        <v>2114942071</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A466">
+        <v>2114902005</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A467">
+        <v>2114834051</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A468">
+        <v>2207081083</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A469">
+        <v>2211334007</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A470">
+        <v>2203213049</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A471">
+        <v>2211291095</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A472">
+        <v>2114979058</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A473">
+        <v>2211343016</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A474">
+        <v>2113148070</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A475">
+        <v>2105500083</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A476">
+        <v>2112580070</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A477">
+        <v>2204258065</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A478">
+        <v>2114858093</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A479">
+        <v>2114826093</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A480">
+        <v>2204220012</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A481">
+        <v>2201570095</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A482">
+        <v>2100490049</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A483">
+        <v>2007708087</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A484">
+        <v>2114984070</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A485">
+        <v>2115101083</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A486">
+        <v>2204179003</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A487">
+        <v>2110220038</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A488">
+        <v>2113007038</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A489">
+        <v>2211367070</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A490">
+        <v>2115050093</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A491">
+        <v>2115131097</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A492">
+        <v>2112912028</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A493">
+        <v>2014344068</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A494">
+        <v>2108527047</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A495">
+        <v>2014344096</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A496">
+        <v>2112778070</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A497">
+        <v>2111848065</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A498">
+        <v>2112912070</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A499">
+        <v>2112772072</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A500">
+        <v>2203385032</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A501">
+        <v>2114885028</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A502">
+        <v>2114916012</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A503">
+        <v>2115096051</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A504">
+        <v>2114028093</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A505">
+        <v>2113825093</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A506">
+        <v>2211005020</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A507">
+        <v>2200391076</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A508">
+        <v>2211147076</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A509">
+        <v>2112366102</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A510">
+        <v>2211485028</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A511">
+        <v>2211003076</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A512">
+        <v>2114260093</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A513">
+        <v>2112415109</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A514">
+        <v>2114822047</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A515">
+        <v>2201599101</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A516">
+        <v>2113479038</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A517">
+        <v>2102654083</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A518">
+        <v>2113665028</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A519">
+        <v>2210954032</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A520">
+        <v>2208179070</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A521">
+        <v>2114804047</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A522">
+        <v>2211147020</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A523">
+        <v>2114867003</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A524">
+        <v>2206446067</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A525">
+        <v>2115089083</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A526">
+        <v>2114839102</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A527">
+        <v>1707474070</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A528">
+        <v>2109755061</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A529">
+        <v>2102654106</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A530">
+        <v>2115025070</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A531">
+        <v>2211149076</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A532">
+        <v>2114209093</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A533">
+        <v>2112777070</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A534">
+        <v>2111848110</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A535">
+        <v>2211320076</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A536">
+        <v>1906383083</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A537">
+        <v>1902617028</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A538">
+        <v>2210956033</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A539">
+        <v>2113574016</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A540">
+        <v>2114211070</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A541">
+        <v>2114185070</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A542">
+        <v>2109755083</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A543">
+        <v>2115084028</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A544">
+        <v>2211292076</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A545">
+        <v>2211367083</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A546">
+        <v>2113866038</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A547">
+        <v>2112678114</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A548">
+        <v>2210957076</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A549">
+        <v>2115129051</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A550">
+        <v>2114378068</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A551">
+        <v>2203225064</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A552">
+        <v>2112840106</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A553">
+        <v>2210961050</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A554">
+        <v>2203225083</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A555">
+        <v>1909195006</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A556">
+        <v>2113293102</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A557">
+        <v>1909195064</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A558">
+        <v>2112415017</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A559">
+        <v>2114376093</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A560">
+        <v>2100490093</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A561">
+        <v>2115084083</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A562">
+        <v>2114973070</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A563">
+        <v>2211425018</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A564">
+        <v>2211412070</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A565">
+        <v>2114966049</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A566">
+        <v>2115335114</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A567">
+        <v>2114866051</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A568">
+        <v>2111690062</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A569">
+        <v>2204899028</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A570">
+        <v>2114208005</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A571">
+        <v>1811896058</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A572">
+        <v>2112838070</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A573">
+        <v>2113365034</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A574">
+        <v>2201489025</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A575">
+        <v>2211411064</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A576">
+        <v>2202845020</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A577">
+        <v>2114373070</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A578">
+        <v>2114869051</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A579">
+        <v>2211354076</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A580">
+        <v>2210963020</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A581">
+        <v>1909195070</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A582">
+        <v>2201383096</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A583">
+        <v>2114316103</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A584">
+        <v>2114316013</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A585">
+        <v>2204122098</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A586">
+        <v>2210953076</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A587">
+        <v>2115055070</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A588">
+        <v>2211410038</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A589">
+        <v>2113695038</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A590">
+        <v>2202845076</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A591">
+        <v>1610676065</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A592">
+        <v>2201383058</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A593">
+        <v>2210891101</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A594">
+        <v>2201431102</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A595">
+        <v>2204437070</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A596">
+        <v>2210892049</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A597">
+        <v>2108833047</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A598">
+        <v>2201431012</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A599">
+        <v>2115024012</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A600">
+        <v>2115088070</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A601">
+        <v>2210891095</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A602">
+        <v>2114821106</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A603">
+        <v>2112772070</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A604">
+        <v>2108833102</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A605">
+        <v>2112771070</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A606">
+        <v>2211232070</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A607">
+        <v>2210894093</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A608">
+        <v>2210893017</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A609">
+        <v>2210966032</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A610">
+        <v>2114207070</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A611">
+        <v>2111848050</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A612">
+        <v>2115124003</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A613">
+        <v>2112835111</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A614">
+        <v>2113864038</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A615">
+        <v>2111848111</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A616">
+        <v>2108833012</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A617">
+        <v>2114940083</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A618">
+        <v>2210894083</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A619">
+        <v>2114908093</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A620">
+        <v>2105447061</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A621">
+        <v>2115043051</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A622">
+        <v>2210893102</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A623">
+        <v>2111848090</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A624">
+        <v>2114808003</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A625">
+        <v>2114873028</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A626">
+        <v>2114950012</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A627">
+        <v>2111848095</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A628">
+        <v>2202865098</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A629">
+        <v>2114035093</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A630">
+        <v>2112581034</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A631">
+        <v>2112780097</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A632">
+        <v>2112780070</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A633">
+        <v>2114009083</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A634">
+        <v>2114211016</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A635">
+        <v>2114957070</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A636">
+        <v>2115083012</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A637">
+        <v>2113848034</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A638">
+        <v>2105033030</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A639">
+        <v>2114857093</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A640">
+        <v>2114983003</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A641">
+        <v>2114210055</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A642">
+        <v>2114920012</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A643">
+        <v>2112775012</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A644">
+        <v>2112771097</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A645">
+        <v>2114025028</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A646">
+        <v>2203504064</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A647">
+        <v>1911537012</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A648">
+        <v>2114125034</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A649">
+        <v>2112835098</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A650">
+        <v>2200048109</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A651">
+        <v>2114087049</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A652">
+        <v>2114801047</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A653">
+        <v>2115041083</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A654">
+        <v>2204130076</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A655">
+        <v>2114863083</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A656">
+        <v>2114270028</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A657">
+        <v>2112770070</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A658">
+        <v>2112778106</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A659">
+        <v>2114014028</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A660">
+        <v>2114180102</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A661">
+        <v>2114841003</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A662">
+        <v>2114448083</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A663">
+        <v>2115095047</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A664">
+        <v>2211478039</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A665">
+        <v>2114972070</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A666">
+        <v>2114893071</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A667">
+        <v>2113687095</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A668">
+        <v>2113866034</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A669">
+        <v>2102415012</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A670">
+        <v>2115007065</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A671">
+        <v>2114973093</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A672">
+        <v>2114836093</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A673">
+        <v>2114299028</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A674">
+        <v>2204020070</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A675">
+        <v>2114859093</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A676">
+        <v>2200048083</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A677">
+        <v>2114841093</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A678">
+        <v>2114037070</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A679">
+        <v>2111848099</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A680">
+        <v>2114975070</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A681">
+        <v>2111848068</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A682">
+        <v>2207027006</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A683">
+        <v>2114919065</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A684">
+        <v>2113687102</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A685">
+        <v>2110389070</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A686">
+        <v>2114004070</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A687">
+        <v>2007706070</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A688">
+        <v>2114870047</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A689">
+        <v>2114463049</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A690">
+        <v>2114913071</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A691">
+        <v>2114204034</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A692">
+        <v>2114170034</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A693">
+        <v>2201411028</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A694">
+        <v>2113873065</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A695">
+        <v>2114807047</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A696">
+        <v>2112833058</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A697">
+        <v>2203136028</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A698">
+        <v>2006711012</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A699">
+        <v>2114842058</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A700">
+        <v>2114975049</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A701">
+        <v>2108190077</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A702">
+        <v>2115014051</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A703">
+        <v>2114373093</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A704">
+        <v>2113311038</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A705">
+        <v>2112670010</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A706">
+        <v>2113885051</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A707">
+        <v>2113321042</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A708">
+        <v>2114861049</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A709">
+        <v>2114821049</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A710">
+        <v>2115030028</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A711">
+        <v>2114204038</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A712">
+        <v>2200048070</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A713">
+        <v>2108989111</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A714">
+        <v>2114170038</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A715">
+        <v>2115102096</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A716">
+        <v>2115009051</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A717">
+        <v>2114963005</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A718">
+        <v>2108527064</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A719">
+        <v>2113873012</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A720">
+        <v>2114871051</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A721">
+        <v>2114133102</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A722">
+        <v>2011273029</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A723">
+        <v>2113813034</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A724">
+        <v>2113864034</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A725">
+        <v>2113908093</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A726">
+        <v>2001866005</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A727">
+        <v>2114029028</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A728">
+        <v>1905315028</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A729">
+        <v>2114830003</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A730">
+        <v>2111844083</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A731">
+        <v>2113873102</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A732">
+        <v>2114217054</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A733">
+        <v>2203148032</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A734">
+        <v>2113847038</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A735">
+        <v>2115104093</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A736">
+        <v>2200603070</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A737">
+        <v>2114840093</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A738">
+        <v>2113581007</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A739">
+        <v>2113813038</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A740">
+        <v>2110204038</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A741">
+        <v>1702852054</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A742">
+        <v>2113873047</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A743">
+        <v>2115093042</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A744">
+        <v>2114678071</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A745">
+        <v>2111844095</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A746">
+        <v>2114612054</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A747">
+        <v>2114273038</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A748">
+        <v>2114285051</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A749">
+        <v>2111844102</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A750">
+        <v>2113908012</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A751">
+        <v>2110265051</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A752">
+        <v>2110746094</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A753">
+        <v>2110019034</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A754">
+        <v>2113873083</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A755">
+        <v>2113873093</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A756">
+        <v>2204132076</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A757">
+        <v>1902292051</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A758">
+        <v>2114849070</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A759">
+        <v>2114273034</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A760">
+        <v>2113901076</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A761">
+        <v>2115073042</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A762">
+        <v>2111938002</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A763">
+        <v>2104617028</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A764">
+        <v>2110221038</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A765">
+        <v>1706934093</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A766">
+        <v>2114478051</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A767">
+        <v>1803580029</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A768">
+        <v>1704639020</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A769">
+        <v>1707298083</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A770">
+        <v>2005999041</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A771">
+        <v>2004991003</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A772">
+        <v>1703451093</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A773">
+        <v>1907264051</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A774">
+        <v>1502380083</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A775">
+        <v>2012159038</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A776">
+        <v>1808181028</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A777">
+        <v>1808142083</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
